--- a/analyst/Franzi/rmonize/data_dictionary/DD_GHS_FRANZI.xlsx
+++ b/analyst/Franzi/rmonize/data_dictionary/DD_GHS_FRANZI.xlsx
@@ -1,22 +1,336 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\analyst\Franzi\rmonize\data_dictionary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{10DE0FA8-CD6E-470C-ADAD-B4697CAE6BF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="101">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>valueType</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>qu_nutr_potato_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_fries_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_salad_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_veggie_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_pulse_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_fruit_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_nuts_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_cheese_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_cream_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_normalfatmilk_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_lowfatmilk_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_buttermilk_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_cereals_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_oats_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_pasta_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_reis_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_wbread_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_bbread_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_blackbread_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_meat_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_sausage_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_poultry_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_fish_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_egg_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_butter_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_margarine_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_oliveoil_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_vegetableoil_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_sweets_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_cake_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_regimensoftdrink_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_fruitjuice_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_softdrink_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_water_c</t>
+  </si>
+  <si>
+    <t>qu_nutr_coffee_d</t>
+  </si>
+  <si>
+    <t>qu_nutr_tea_d</t>
+  </si>
+  <si>
+    <t>sacapi_sm019_i_4</t>
+  </si>
+  <si>
+    <t>sacapi_sm020_i_4</t>
+  </si>
+  <si>
+    <t>sacapi_sm019_i_1</t>
+  </si>
+  <si>
+    <t>sacapi_sm020_i_1</t>
+  </si>
+  <si>
+    <t>sacapi_sm019_i_5</t>
+  </si>
+  <si>
+    <t>sacapi_sm020_i_5</t>
+  </si>
+  <si>
+    <t>sacapi_sm019_i_6</t>
+  </si>
+  <si>
+    <t>sacapi_sm020_i_6</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten gekochte Kartoffeln</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten frittierte Kartoffeln (Bratkartoffeln, Kroketten, Pommes frites)</t>
+  </si>
+  <si>
+    <t>Nie oder fast nie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Einmal im Monat oder seltener</t>
+  </si>
+  <si>
+    <t>Mehrmals im Monat</t>
+  </si>
+  <si>
+    <t>Etwa einmal in der Woche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mehrmals in der Woche</t>
+  </si>
+  <si>
+    <t>Täglich oder fast täglich</t>
+  </si>
+  <si>
+    <t>Mehrmals täglich</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Salat oder Gemüse, roh zubereitet (Karotte, Kohlrabi, Tomate, Oliven, Gurke, Paprika)</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Hülsenfrüchte (Bohnen, Erbsen, Linsen)</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Frisches Obst (Apfel, Banane, Pfirsich, Beerenobst)</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten  gekochtes Gemüse  (Karotte, Kohlrabi, Tomate, Oliven, Gurke, Paprika)</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten ungesalzene Nüsse (Walnuss, Erdnuss, Mandel, Pistazie)</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Käse (Schnittkäse, Weichkäse oder anderer Käse)</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Sahne/Creme fraiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie oft konsumierten Sie in den letzten 12 Monaten Milchprodukte mit normalem FettgehaltMilchprodukte mit normalem Fettgehalt (Quark, Joghurt, Dickmilch) </t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten fettarme Milchprodukte bis 1,5%Fettgehalt (Joghurt, Milch, Quark)</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Milch einschließlich Buttermilch</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Müsli, Cornflakes</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Haferflocken</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Teigwaren (Nudeln, Spaghetti)</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Reis</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Graubrot, Mischbrot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie oft konsumierten Sie in den letzten 12 Monaten Vollkornbrot, Schwarzbrot, Knäckebrot   </t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Fleisch (Schwein, Rind, Lamm, Wild, keine Wurstwaren)</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Geflügel (Huhn, Pute, Ente)</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Wurstwaren, Schinken (Aufschnitt, Frikadelle)</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Fisch oder Meeresfrüchte (Hering, Lachs, Forelle, Shrimps, Muscheln)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie oft konsumierten Sie in den letzten 12 Monaten Eier </t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Butter</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Margarine</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Olivenöl</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten andere pflanzliche Öle</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Süßwaren (Bonbons, Schokolade, Pralinen, etc.)</t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Kuchen, Gebäck, Kekse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie oft konsumierten Sie in den letzten 12 Monaten Diätlimonade, sonst. Diätgetränke </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie oft konsumierten Sie in den letzten 12 Monaten Obstsäfte und Gemüsesäfte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie oft konsumierten Sie in den letzten 12 Monaten Erfrischungsgetränke (Limonaden, Cola-Getränke) </t>
+  </si>
+  <si>
+    <t>Wie oft konsumierten Sie in den letzten 12 Monaten Mineralwasser/Leitungswasser</t>
+  </si>
+  <si>
+    <t>Wie viele Tassen Kaffee trinken Sie gewöhnlich am Tag?</t>
+  </si>
+  <si>
+    <t>Wie viele Tassen schwarzen oder grünen Tee trinken Sie gewöhnlich am Tag?</t>
+  </si>
+  <si>
+    <t>Wie viel Wein oder Sekt trinken Sie in der Regel am Wochenende, also am Samstag und Sonntag?</t>
+  </si>
+  <si>
+    <t>Wie viel Wein oder Sekt trinken Sie in der Regel an einem Werktag?</t>
+  </si>
+  <si>
+    <t>Wie viel Bier trinken Sie in der Regel am Wochenende, also am Samstag und Sonntag?</t>
+  </si>
+  <si>
+    <t>Wie viel Bier trinken Sie in der Regel an einem Werktag?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie viel Schnaps trinken Sie in der Regel am Wochenende, also am Samstag und Sonntag? </t>
+  </si>
+  <si>
+    <t>Wie viel Schnaps trinken Sie in der Regel an einem Werktag?</t>
+  </si>
+  <si>
+    <t>Wie viel alkoholhaltige Mischgetränke trinken Sie in der Regel an einem Werktag?</t>
+  </si>
+  <si>
+    <t>Wie viel alkoholhaltige Mischgetränke trinken Sie in der Regel am Wochenende, also am Samstag und Sonntag?</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,6 +342,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -53,22 +381,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -110,7 +454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -142,9 +486,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,6 +538,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,33 +731,515 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="145" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>valueType</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -386,31 +1248,2692 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C253"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="B261" sqref="B261"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="5">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="5">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="5">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="5">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="5">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="5">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="5">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="5">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="5">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="5">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="5">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="5">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="5">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="5">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="5">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="5">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="5">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="5">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="5">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="5">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="5">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="5">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="5">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="5">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="5">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="5">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="5">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="5">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="5">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="5">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="5">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="5">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="5">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="5">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="5">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="5">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="5">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="5">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="5">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="5">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="5">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="5">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="5">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="5">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="5">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="5">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="5">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="5">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="5">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" s="5">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" s="5">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="5">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" s="5">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" s="5">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" s="5">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="5">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="5">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="5">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="5">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="5">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" s="5">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" s="5">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" s="5">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" s="5">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" s="5">
+        <v>4</v>
+      </c>
+      <c r="C118" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" s="5">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" s="5">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="5">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122" s="5">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" s="5">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>22</v>
+      </c>
+      <c r="B124" s="5">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" s="5">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="5">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127" s="5">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="5">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="5">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="5">
+        <v>2</v>
+      </c>
+      <c r="C130" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="5">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="5">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" s="5">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="5">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135" s="5">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="5">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" s="5">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" s="5">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" s="5">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="5">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="5">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" s="5">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="5">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" s="5">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" s="5">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" s="5">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147" s="5">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148" s="5">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>25</v>
+      </c>
+      <c r="B149" s="5">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150" s="5">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>25</v>
+      </c>
+      <c r="B151" s="5">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>25</v>
+      </c>
+      <c r="B152" s="5">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>25</v>
+      </c>
+      <c r="B153" s="5">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>25</v>
+      </c>
+      <c r="B154" s="5">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>25</v>
+      </c>
+      <c r="B155" s="5">
+        <v>6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" s="5">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" s="5">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158" s="5">
+        <v>2</v>
+      </c>
+      <c r="C158" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159" s="5">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" s="5">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>27</v>
+      </c>
+      <c r="B161" s="5">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162" s="5">
+        <v>6</v>
+      </c>
+      <c r="C162" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>28</v>
+      </c>
+      <c r="B163" s="5">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>28</v>
+      </c>
+      <c r="B164" s="5">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>28</v>
+      </c>
+      <c r="B165" s="5">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>28</v>
+      </c>
+      <c r="B166" s="5">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>28</v>
+      </c>
+      <c r="B167" s="5">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>28</v>
+      </c>
+      <c r="B168" s="5">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>28</v>
+      </c>
+      <c r="B169" s="5">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>29</v>
+      </c>
+      <c r="B170" s="5">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>29</v>
+      </c>
+      <c r="B171" s="5">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>29</v>
+      </c>
+      <c r="B172" s="5">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>29</v>
+      </c>
+      <c r="B173" s="5">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>29</v>
+      </c>
+      <c r="B174" s="5">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>29</v>
+      </c>
+      <c r="B175" s="5">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>29</v>
+      </c>
+      <c r="B176" s="5">
+        <v>6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>30</v>
+      </c>
+      <c r="B177" s="5">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>30</v>
+      </c>
+      <c r="B178" s="5">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>30</v>
+      </c>
+      <c r="B179" s="5">
+        <v>2</v>
+      </c>
+      <c r="C179" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>30</v>
+      </c>
+      <c r="B180" s="5">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>30</v>
+      </c>
+      <c r="B181" s="5">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>30</v>
+      </c>
+      <c r="B182" s="5">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>30</v>
+      </c>
+      <c r="B183" s="5">
+        <v>6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>31</v>
+      </c>
+      <c r="B184" s="5">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>31</v>
+      </c>
+      <c r="B185" s="5">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>31</v>
+      </c>
+      <c r="B186" s="5">
+        <v>2</v>
+      </c>
+      <c r="C186" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>31</v>
+      </c>
+      <c r="B187" s="5">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>31</v>
+      </c>
+      <c r="B188" s="5">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>31</v>
+      </c>
+      <c r="B189" s="5">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>31</v>
+      </c>
+      <c r="B190" s="5">
+        <v>6</v>
+      </c>
+      <c r="C190" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>32</v>
+      </c>
+      <c r="B191" s="5">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>32</v>
+      </c>
+      <c r="B192" s="5">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>32</v>
+      </c>
+      <c r="B193" s="5">
+        <v>2</v>
+      </c>
+      <c r="C193" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>32</v>
+      </c>
+      <c r="B194" s="5">
+        <v>3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>32</v>
+      </c>
+      <c r="B195" s="5">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>32</v>
+      </c>
+      <c r="B196" s="5">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>32</v>
+      </c>
+      <c r="B197" s="5">
+        <v>6</v>
+      </c>
+      <c r="C197" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>33</v>
+      </c>
+      <c r="B198" s="5">
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>33</v>
+      </c>
+      <c r="B199" s="5">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>33</v>
+      </c>
+      <c r="B200" s="5">
+        <v>2</v>
+      </c>
+      <c r="C200" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>33</v>
+      </c>
+      <c r="B201" s="5">
+        <v>3</v>
+      </c>
+      <c r="C201" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>33</v>
+      </c>
+      <c r="B202" s="5">
+        <v>4</v>
+      </c>
+      <c r="C202" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>33</v>
+      </c>
+      <c r="B203" s="5">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>33</v>
+      </c>
+      <c r="B204" s="5">
+        <v>6</v>
+      </c>
+      <c r="C204" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>34</v>
+      </c>
+      <c r="B205" s="5">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>34</v>
+      </c>
+      <c r="B206" s="5">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>34</v>
+      </c>
+      <c r="B207" s="5">
+        <v>2</v>
+      </c>
+      <c r="C207" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>34</v>
+      </c>
+      <c r="B208" s="5">
+        <v>3</v>
+      </c>
+      <c r="C208" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>34</v>
+      </c>
+      <c r="B209" s="5">
+        <v>4</v>
+      </c>
+      <c r="C209" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>34</v>
+      </c>
+      <c r="B210" s="5">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>34</v>
+      </c>
+      <c r="B211" s="5">
+        <v>6</v>
+      </c>
+      <c r="C211" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B212" s="5">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B213" s="5">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B214" s="5">
+        <v>2</v>
+      </c>
+      <c r="C214" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B215" s="5">
+        <v>3</v>
+      </c>
+      <c r="C215" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B216" s="5">
+        <v>4</v>
+      </c>
+      <c r="C216" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B217" s="5">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B218" s="5">
+        <v>6</v>
+      </c>
+      <c r="C218" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>36</v>
+      </c>
+      <c r="B219" s="5">
+        <v>0</v>
+      </c>
+      <c r="C219" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>36</v>
+      </c>
+      <c r="B220" s="5">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>36</v>
+      </c>
+      <c r="B221" s="5">
+        <v>2</v>
+      </c>
+      <c r="C221" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>36</v>
+      </c>
+      <c r="B222" s="5">
+        <v>3</v>
+      </c>
+      <c r="C222" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>36</v>
+      </c>
+      <c r="B223" s="5">
+        <v>4</v>
+      </c>
+      <c r="C223" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>36</v>
+      </c>
+      <c r="B224" s="5">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>36</v>
+      </c>
+      <c r="B225" s="5">
+        <v>6</v>
+      </c>
+      <c r="C225" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>37</v>
+      </c>
+      <c r="B226" s="5">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>37</v>
+      </c>
+      <c r="B227" s="5">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>37</v>
+      </c>
+      <c r="B228" s="5">
+        <v>2</v>
+      </c>
+      <c r="C228" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>37</v>
+      </c>
+      <c r="B229" s="5">
+        <v>3</v>
+      </c>
+      <c r="C229" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>37</v>
+      </c>
+      <c r="B230" s="5">
+        <v>4</v>
+      </c>
+      <c r="C230" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>37</v>
+      </c>
+      <c r="B231" s="5">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>37</v>
+      </c>
+      <c r="B232" s="5">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>38</v>
+      </c>
+      <c r="B233" s="5">
+        <v>0</v>
+      </c>
+      <c r="C233" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>38</v>
+      </c>
+      <c r="B234" s="5">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>38</v>
+      </c>
+      <c r="B235" s="5">
+        <v>2</v>
+      </c>
+      <c r="C235" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>38</v>
+      </c>
+      <c r="B236" s="5">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>38</v>
+      </c>
+      <c r="B237" s="5">
+        <v>4</v>
+      </c>
+      <c r="C237" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>38</v>
+      </c>
+      <c r="B238" s="5">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>38</v>
+      </c>
+      <c r="B239" s="5">
+        <v>6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="5"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="5"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="5"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="5"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="5"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="5"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="5"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="5"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="5"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="5"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="5"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="5"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="5"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>